--- a/ExcelFiles/TestData.xlsx
+++ b/ExcelFiles/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -42,12 +42,6 @@
     <t>testuser1@gmail.com</t>
   </si>
   <si>
-    <t>testuser2@gmail.com</t>
-  </si>
-  <si>
-    <t>testuser3@gmail.com</t>
-  </si>
-  <si>
     <t>pwd1122</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
   </si>
   <si>
     <t>Miller</t>
-  </si>
-  <si>
-    <t>testuser4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -412,19 +403,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -432,36 +423,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -478,9 +445,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -488,12 +455,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
